--- a/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-immunization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization</t>
   </si>
   <si>
     <t>Version</t>
